--- a/test_data/test_mercury.xlsx
+++ b/test_data/test_mercury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12300" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="get_modified_version" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,20 @@
     <sheet name="get_robot_type" sheetId="5" r:id="rId5"/>
     <sheet name="get_limit_switch" sheetId="6" r:id="rId6"/>
     <sheet name="clear_error_information" sheetId="7" r:id="rId7"/>
+    <sheet name="power_on" sheetId="8" r:id="rId8"/>
+    <sheet name="power_off" sheetId="9" r:id="rId9"/>
+    <sheet name="is_power_on" sheetId="10" r:id="rId10"/>
+    <sheet name="power_on_only" sheetId="11" r:id="rId11"/>
+    <sheet name="set_servo_calibration" sheetId="12" r:id="rId12"/>
+    <sheet name="get_joint_max_angle" sheetId="13" r:id="rId13"/>
+    <sheet name="get_joint_min_angle" sheetId="14" r:id="rId14"/>
+    <sheet name="set_joint_max_angle" sheetId="15" r:id="rId15"/>
+    <sheet name="set_joint_min_angle" sheetId="16" r:id="rId16"/>
+    <sheet name="get_robot_status" sheetId="17" r:id="rId17"/>
+    <sheet name="over_limit_return_zero" sheetId="18" r:id="rId18"/>
+    <sheet name="get_angle" sheetId="19" r:id="rId19"/>
+    <sheet name="get_model_direction" sheetId="20" r:id="rId20"/>
+    <sheet name="get_movement_type" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -123,6 +137,249 @@
   </si>
   <si>
     <t>clear_error_information</t>
+  </si>
+  <si>
+    <t>机械臂正常上电</t>
+  </si>
+  <si>
+    <t>power_on</t>
+  </si>
+  <si>
+    <t>机械臂正常下电</t>
+  </si>
+  <si>
+    <t>power_off</t>
+  </si>
+  <si>
+    <t>test_type</t>
+  </si>
+  <si>
+    <t>检查机械臂上电状态下返回</t>
+  </si>
+  <si>
+    <t>is_power_on</t>
+  </si>
+  <si>
+    <t>检查机械臂下电状态下返回</t>
+  </si>
+  <si>
+    <t>检查机械臂power_on_only状态下返回</t>
+  </si>
+  <si>
+    <t>机械臂正常仅上电</t>
+  </si>
+  <si>
+    <t>power_on_only</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>设置1关节零位</t>
+  </si>
+  <si>
+    <t>set_servo_Calibration</t>
+  </si>
+  <si>
+    <t>设置2关节零位</t>
+  </si>
+  <si>
+    <t>设置3关节零位</t>
+  </si>
+  <si>
+    <t>设置4关节零位</t>
+  </si>
+  <si>
+    <t>设置5关节零位</t>
+  </si>
+  <si>
+    <t>设置6关节零位</t>
+  </si>
+  <si>
+    <t>设置7关节零位</t>
+  </si>
+  <si>
+    <t>设置关节零位（超限）</t>
+  </si>
+  <si>
+    <t>正确获取1关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>get_joint_max_angle</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>正确获取2关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确获取3关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确获取4关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确获取5关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确获取6关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确获取7关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>获取关节软件限位最大值（超限）</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>正确获取1关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>get_joint_min_angle</t>
+  </si>
+  <si>
+    <t>正确获取2关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确获取3关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确获取4关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确获取5关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确获取6关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确获取7关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>获取关节软件限位最小值（超限）</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>正确设置1关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>set_joint_max_angle</t>
+  </si>
+  <si>
+    <t>正确设置2关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确设置3关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确设置4关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确设置5关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确设置6关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>正确设置7关节软件限位最大值</t>
+  </si>
+  <si>
+    <t>设置关节软件限位最大值关节（超限）</t>
+  </si>
+  <si>
+    <t>设置关节软件限位最大值（超限）</t>
+  </si>
+  <si>
+    <t>正确设置1关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>set_joint_min_angle</t>
+  </si>
+  <si>
+    <t>正确设置2关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确设置3关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确设置4关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确设置5关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确设置6关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>正确设置7关节软件限位最小值</t>
+  </si>
+  <si>
+    <t>设置关节软件限位最小值关节（超限）</t>
+  </si>
+  <si>
+    <t>设置关节软件限位最小值（超限）</t>
+  </si>
+  <si>
+    <t>获取机械臂状态</t>
+  </si>
+  <si>
+    <t>get_robot_status</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>机械臂回到零位</t>
+  </si>
+  <si>
+    <t>over_limit_return_zero</t>
+  </si>
+  <si>
+    <t>set_angle</t>
+  </si>
+  <si>
+    <t>正确获取1关节角度</t>
+  </si>
+  <si>
+    <t>get_angle</t>
+  </si>
+  <si>
+    <t>正确获取2关节角度</t>
+  </si>
+  <si>
+    <t>正确获取3关节角度</t>
+  </si>
+  <si>
+    <t>正确获取4关节角度</t>
+  </si>
+  <si>
+    <t>正确获取5关节角度</t>
+  </si>
+  <si>
+    <t>正确获取6关节角度</t>
+  </si>
+  <si>
+    <t>正确获取7关节角度</t>
+  </si>
+  <si>
+    <t>获取关节角度关节（超限）</t>
+  </si>
+  <si>
+    <t>正确获取关节模型方向</t>
+  </si>
+  <si>
+    <t>get_model_direction</t>
+  </si>
+  <si>
+    <t>正确获取机械臂运动模式</t>
+  </si>
+  <si>
+    <t>get_movement_type</t>
   </si>
 </sst>
 </file>
@@ -738,18 +995,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,53 +1367,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="56.8796296296296" style="3" customWidth="1"/>
-    <col min="5" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="56.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="90" customHeight="1" spans="1:7">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1173,134 +1427,2084 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>165</v>
+      </c>
+      <c r="F2" s="1">
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>120</v>
+      </c>
+      <c r="F3" s="1">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>165</v>
+      </c>
+      <c r="F4" s="1">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1">
+        <v>165</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>265</v>
+      </c>
+      <c r="F7" s="1">
+        <v>265</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>180</v>
+      </c>
+      <c r="F8" s="1">
+        <v>180</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-165</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-165</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-165</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-180</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-180</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>160</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>150</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>140</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>250</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>170</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-140</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-155</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-160</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-175</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1316,52 +3520,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>1.2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>1.2</v>
       </c>
     </row>
@@ -1383,52 +3587,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>1.1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>1.1</v>
       </c>
     </row>
@@ -1449,7 +3653,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
@@ -1457,46 +3661,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>4501</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>4502</v>
       </c>
     </row>
@@ -1517,52 +3721,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1577,53 +3781,173 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>

--- a/test_data/test_mercury.xlsx
+++ b/test_data/test_mercury.xlsx
@@ -4,30 +4,38 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" firstSheet="14" activeTab="20"/>
+    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
-    <sheet name="get_modified_version" sheetId="1" r:id="rId1"/>
-    <sheet name="set_limit_switch" sheetId="2" r:id="rId2"/>
+    <sheet name="get_system_version" sheetId="4" r:id="rId1"/>
+    <sheet name="get_modified_version" sheetId="1" r:id="rId2"/>
     <sheet name="get_atom_version" sheetId="3" r:id="rId3"/>
-    <sheet name="get_system_version" sheetId="4" r:id="rId4"/>
-    <sheet name="get_robot_type" sheetId="5" r:id="rId5"/>
+    <sheet name="get_robot_type" sheetId="5" r:id="rId4"/>
+    <sheet name="set_limit_switch" sheetId="2" r:id="rId5"/>
     <sheet name="get_limit_switch" sheetId="6" r:id="rId6"/>
-    <sheet name="clear_error_information" sheetId="7" r:id="rId7"/>
-    <sheet name="power_on" sheetId="8" r:id="rId8"/>
-    <sheet name="power_off" sheetId="9" r:id="rId9"/>
-    <sheet name="is_power_on" sheetId="10" r:id="rId10"/>
+    <sheet name="power_on" sheetId="8" r:id="rId7"/>
+    <sheet name="power_off" sheetId="9" r:id="rId8"/>
+    <sheet name="is_power_on" sheetId="10" r:id="rId9"/>
+    <sheet name="is_init_calibration" sheetId="25" r:id="rId10"/>
     <sheet name="power_on_only" sheetId="11" r:id="rId11"/>
-    <sheet name="set_servo_calibration" sheetId="12" r:id="rId12"/>
-    <sheet name="get_joint_max_angle" sheetId="13" r:id="rId13"/>
-    <sheet name="get_joint_min_angle" sheetId="14" r:id="rId14"/>
-    <sheet name="set_joint_max_angle" sheetId="15" r:id="rId15"/>
-    <sheet name="set_joint_min_angle" sheetId="16" r:id="rId16"/>
-    <sheet name="get_robot_status" sheetId="17" r:id="rId17"/>
-    <sheet name="over_limit_return_zero" sheetId="18" r:id="rId18"/>
-    <sheet name="get_angle" sheetId="19" r:id="rId19"/>
-    <sheet name="get_model_direction" sheetId="20" r:id="rId20"/>
-    <sheet name="get_movement_type" sheetId="21" r:id="rId21"/>
+    <sheet name="get_error_information" sheetId="26" r:id="rId12"/>
+    <sheet name="clear_error_information" sheetId="7" r:id="rId13"/>
+    <sheet name="get_robot_status" sheetId="17" r:id="rId14"/>
+    <sheet name="over_limit_return_zero" sheetId="18" r:id="rId15"/>
+    <sheet name="set_control_mode" sheetId="27" r:id="rId16"/>
+    <sheet name="get_control_mode" sheetId="28" r:id="rId17"/>
+    <sheet name="set_servo_calibration" sheetId="12" r:id="rId18"/>
+    <sheet name="get_joint_max_angle" sheetId="13" r:id="rId19"/>
+    <sheet name="get_joint_min_angle" sheetId="14" r:id="rId20"/>
+    <sheet name="set_joint_max_angle" sheetId="15" r:id="rId21"/>
+    <sheet name="set_joint_min_angle" sheetId="16" r:id="rId22"/>
+    <sheet name="get_angles" sheetId="22" r:id="rId23"/>
+    <sheet name="send_angles" sheetId="29" r:id="rId24"/>
+    <sheet name="get_angle" sheetId="19" r:id="rId25"/>
+    <sheet name="get_model_direction" sheetId="20" r:id="rId26"/>
+    <sheet name="get_movement_type" sheetId="21" r:id="rId27"/>
+    <sheet name="get_coords" sheetId="23" r:id="rId28"/>
+    <sheet name="get_base_coords" sheetId="24" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -61,22 +69,73 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>res_type</t>
-  </si>
-  <si>
     <t>l_expect_data</t>
   </si>
   <si>
     <t>r_expect_data</t>
   </si>
   <si>
+    <t>test_type</t>
+  </si>
+  <si>
+    <t>正确获取固件版本号</t>
+  </si>
+  <si>
+    <t>get_system_version</t>
+  </si>
+  <si>
+    <t>power_on</t>
+  </si>
+  <si>
+    <t>仅上电获取固件版本号</t>
+  </si>
+  <si>
+    <t>power_on_only</t>
+  </si>
+  <si>
+    <t>断电获取固件版本号</t>
+  </si>
+  <si>
+    <t>power_off</t>
+  </si>
+  <si>
     <t>正确获取修正版本号</t>
   </si>
   <si>
     <t>get_modified_verssion</t>
   </si>
   <si>
-    <t>"int"</t>
+    <t>仅上电获取修正版本号</t>
+  </si>
+  <si>
+    <t>断电获取修正版本号</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>正确获取atom版本号</t>
+  </si>
+  <si>
+    <t>get_atom_version</t>
+  </si>
+  <si>
+    <t>仅上电获取atom版本号</t>
+  </si>
+  <si>
+    <t>断电获取atom版本号</t>
+  </si>
+  <si>
+    <t>正确获取机械臂类型</t>
+  </si>
+  <si>
+    <t>get_robot_type</t>
+  </si>
+  <si>
+    <t>仅上电获取机械臂类型</t>
+  </si>
+  <si>
+    <t>断电获取机械臂类型</t>
   </si>
   <si>
     <t>parameter_1</t>
@@ -85,91 +144,178 @@
     <t>parameter_2</t>
   </si>
   <si>
-    <t>关闭位置超差，到位反馈</t>
+    <t>关闭位置超差</t>
   </si>
   <si>
     <t>set_limit_switch</t>
   </si>
   <si>
-    <t>开启位置超差，到位反馈</t>
-  </si>
-  <si>
-    <t>关闭到位反馈，查看运动接口机接口是否生效</t>
-  </si>
-  <si>
-    <t>打开到位反馈，查看运动接口机接口是否生效</t>
-  </si>
-  <si>
-    <t>正确获取atom版本号</t>
-  </si>
-  <si>
-    <t>get_atom_version</t>
-  </si>
-  <si>
-    <t>"float"</t>
-  </si>
-  <si>
-    <t>正确获取固件版本号</t>
-  </si>
-  <si>
-    <t>get_system_version</t>
-  </si>
-  <si>
-    <t>正确获取机械臂型号</t>
-  </si>
-  <si>
-    <t>get_robot_type</t>
-  </si>
-  <si>
-    <t>获取限制开关</t>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>开启位置超差</t>
+  </si>
+  <si>
+    <t>开启到位反馈</t>
+  </si>
+  <si>
+    <t>关闭到位反馈</t>
+  </si>
+  <si>
+    <t>关闭到位反馈，查看运动接口是否生效</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>打开到位反馈，查看运动接口是否生效</t>
+  </si>
+  <si>
+    <t>设置参数1超限</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>设置参数2超限</t>
+  </si>
+  <si>
+    <t>掉电不保存检查</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>save_or_not</t>
+  </si>
+  <si>
+    <t>正确获取限位开关</t>
   </si>
   <si>
     <t>get_limit_switch</t>
   </si>
   <si>
-    <t>"list"</t>
-  </si>
-  <si>
-    <t>"[1,1]"</t>
-  </si>
-  <si>
-    <t>正确清除运动报错信息</t>
+    <t>仅上电获取限位开关</t>
+  </si>
+  <si>
+    <t>断电获取限位开关</t>
+  </si>
+  <si>
+    <t>机械臂正常上电</t>
+  </si>
+  <si>
+    <t>机械臂拍下急停上电</t>
+  </si>
+  <si>
+    <t>机械臂正常下电</t>
+  </si>
+  <si>
+    <t>机械臂拍下急停下电</t>
+  </si>
+  <si>
+    <t>检查机械臂上电状态下返回</t>
+  </si>
+  <si>
+    <t>is_power_on</t>
+  </si>
+  <si>
+    <t>检查机械臂下电状态下返回</t>
+  </si>
+  <si>
+    <t>检查机械臂power_on_only状态下返回</t>
+  </si>
+  <si>
+    <t>检查机械臂急停状态下上电的返回</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>上电状态下是否设置零位返回</t>
+  </si>
+  <si>
+    <t>is_init_calibration</t>
+  </si>
+  <si>
+    <t>仅上电状态下是否设置零位返回</t>
+  </si>
+  <si>
+    <t>断电状态下是否设置零位返回</t>
+  </si>
+  <si>
+    <t>机械臂正常仅上电</t>
+  </si>
+  <si>
+    <t>机械臂拍下急停后使用仅上电</t>
+  </si>
+  <si>
+    <t>仅上电状态下进行运动控制</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>机械臂位于奇异点时进行坐标控制，读取当前的运动报错信息</t>
+  </si>
+  <si>
+    <t>get_error_information</t>
+  </si>
+  <si>
+    <t>机械臂未触发报错时，当前的运动报错信息</t>
+  </si>
+  <si>
+    <t>正确清除运动报错信息（已触发报错）</t>
   </si>
   <si>
     <t>clear_error_information</t>
   </si>
   <si>
-    <t>机械臂正常上电</t>
-  </si>
-  <si>
-    <t>power_on</t>
-  </si>
-  <si>
-    <t>机械臂正常下电</t>
-  </si>
-  <si>
-    <t>power_off</t>
-  </si>
-  <si>
-    <t>test_type</t>
-  </si>
-  <si>
-    <t>检查机械臂上电状态下返回</t>
-  </si>
-  <si>
-    <t>is_power_on</t>
-  </si>
-  <si>
-    <t>检查机械臂下电状态下返回</t>
-  </si>
-  <si>
-    <t>检查机械臂power_on_only状态下返回</t>
-  </si>
-  <si>
-    <t>机械臂正常仅上电</t>
-  </si>
-  <si>
-    <t>power_on_only</t>
+    <t>normal1</t>
+  </si>
+  <si>
+    <t>正确清除运动报错信息（未触发报错）</t>
+  </si>
+  <si>
+    <t>normal2</t>
+  </si>
+  <si>
+    <t>上电获取机械臂状态</t>
+  </si>
+  <si>
+    <t>get_robot_status</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>仅上电</t>
+  </si>
+  <si>
+    <t>机械臂回到零位</t>
+  </si>
+  <si>
+    <t>over_limit_return_zero</t>
+  </si>
+  <si>
+    <t>正确设置机器人运动模式</t>
+  </si>
+  <si>
+    <t>set_control_mode</t>
+  </si>
+  <si>
+    <t>设置机器人运动模式超限</t>
+  </si>
+  <si>
+    <t>机器人运动模式掉电不保存</t>
+  </si>
+  <si>
+    <t>正确获取机器人默认运动模式</t>
+  </si>
+  <si>
+    <t>get_control_mode</t>
+  </si>
+  <si>
+    <t>切换为力矩模式后读取机器人的运动模式</t>
   </si>
   <si>
     <t>id</t>
@@ -208,9 +354,6 @@
     <t>get_joint_max_angle</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>正确获取2关节软件限位最大值</t>
   </si>
   <si>
@@ -232,9 +375,6 @@
     <t>获取关节软件限位最大值（超限）</t>
   </si>
   <si>
-    <t>exception</t>
-  </si>
-  <si>
     <t>正确获取1关节软件限位最小值</t>
   </si>
   <si>
@@ -262,9 +402,6 @@
     <t>获取关节软件限位最小值（超限）</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>正确设置1关节软件限位最大值</t>
   </si>
   <si>
@@ -325,72 +462,199 @@
     <t>设置关节软件限位最小值（超限）</t>
   </si>
   <si>
-    <t>获取机械臂状态</t>
-  </si>
-  <si>
-    <t>get_robot_status</t>
+    <t>正确获取机械臂全角度</t>
+  </si>
+  <si>
+    <t>get_angles</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,90,0]</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>正确设置多关节角度，速度10</t>
+  </si>
+  <si>
+    <t>send_angles</t>
+  </si>
+  <si>
+    <t>[10,0,0,30,0,90,0]</t>
+  </si>
+  <si>
+    <t>正确设置多关节角度，速度50</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>正确设置多关节角度，速度90</t>
+  </si>
+  <si>
+    <t>[0,0,0,10,0,90,-20]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，速度超限（-1）</t>
+  </si>
+  <si>
+    <t>设置多关节角度，速度超限（0）</t>
+  </si>
+  <si>
+    <t>设置多关节角度，速度超限（101）</t>
+  </si>
+  <si>
+    <t>设置多关节角度，1关节超限（-170）</t>
+  </si>
+  <si>
+    <t>[-170,10,0,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，1关节超限（170）</t>
+  </si>
+  <si>
+    <t>[170,10,0,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，2关节超限（-60）</t>
+  </si>
+  <si>
+    <t>[0,-60,0,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，2关节超限（130）</t>
+  </si>
+  <si>
+    <t>[0,130,0,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，3关节超限（-170）</t>
+  </si>
+  <si>
+    <t>[0,10,-170,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，3关节超限（170）</t>
+  </si>
+  <si>
+    <t>[0,10,170,0,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，4关节超限（-170）</t>
+  </si>
+  <si>
+    <t>[0,10,0,-170,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，4关节超限（2）</t>
+  </si>
+  <si>
+    <t>[0,10,0,2,0,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，5关节超限（-170）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,-170,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，5关节超限（170）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,170,90,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，6关节超限（-80）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,0,-80,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，6关节超限（260）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,0,260,60]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，7关节超限（-170）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,0,90,-170]</t>
+  </si>
+  <si>
+    <t>设置多关节角度，7关节超限（170）</t>
+  </si>
+  <si>
+    <t>[0,10,0,0,0,90,170]</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>正确获取1关节角度</t>
+  </si>
+  <si>
+    <t>get_angle</t>
+  </si>
+  <si>
+    <t>正确获取2关节角度</t>
+  </si>
+  <si>
+    <t>正确获取3关节角度</t>
+  </si>
+  <si>
+    <t>正确获取4关节角度</t>
+  </si>
+  <si>
+    <t>正确获取5关节角度</t>
+  </si>
+  <si>
+    <t>正确获取6关节角度</t>
+  </si>
+  <si>
+    <t>正确获取7关节角度</t>
+  </si>
+  <si>
+    <t>获取关节角度，关节（超限）</t>
+  </si>
+  <si>
+    <t>正确获取关节模型方向</t>
+  </si>
+  <si>
+    <t>get_model_direction</t>
   </si>
   <si>
     <t>[0,0,0,0,0,0,0]</t>
   </si>
   <si>
-    <t>机械臂回到零位</t>
-  </si>
-  <si>
-    <t>over_limit_return_zero</t>
-  </si>
-  <si>
-    <t>set_angle</t>
-  </si>
-  <si>
-    <t>正确获取1关节角度</t>
-  </si>
-  <si>
-    <t>get_angle</t>
-  </si>
-  <si>
-    <t>正确获取2关节角度</t>
-  </si>
-  <si>
-    <t>正确获取3关节角度</t>
-  </si>
-  <si>
-    <t>正确获取4关节角度</t>
-  </si>
-  <si>
-    <t>正确获取5关节角度</t>
-  </si>
-  <si>
-    <t>正确获取6关节角度</t>
-  </si>
-  <si>
-    <t>正确获取7关节角度</t>
-  </si>
-  <si>
-    <t>获取关节角度关节（超限）</t>
-  </si>
-  <si>
-    <t>正确获取关节模型方向</t>
-  </si>
-  <si>
-    <t>get_model_direction</t>
-  </si>
-  <si>
     <t>正确获取机械臂运动模式</t>
   </si>
   <si>
     <t>get_movement_type</t>
+  </si>
+  <si>
+    <t>正确获取机械臂全坐标</t>
+  </si>
+  <si>
+    <t>get_coords</t>
+  </si>
+  <si>
+    <t>正确获取机械臂Base全坐标</t>
+  </si>
+  <si>
+    <t>get_base_coords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -995,7 +1259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,8 +1272,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1359,22 +1626,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="56.8796296296296" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="6" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1386,43 +1655,79 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="90" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" ht="28.8" spans="1:7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="get_modified_verssion"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1433,7 +1738,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1441,7 +1746,10 @@
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1455,16 +1763,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
@@ -1472,59 +1780,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1536,21 +1836,23 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,30 +1863,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1594,6 +1942,569 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F10"/>
@@ -1621,13 +2532,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -1635,10 +2546,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1655,10 +2566,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1675,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1695,10 +2606,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1715,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1735,10 +2646,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -1755,10 +2666,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1775,10 +2686,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -1789,10 +2700,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1804,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -1832,16 +2743,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
@@ -1849,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1864,7 +2775,7 @@
         <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1872,10 +2783,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1887,7 +2798,7 @@
         <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1895,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1910,7 +2821,7 @@
         <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1918,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1933,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1941,10 +2852,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1956,7 +2867,7 @@
         <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1964,10 +2875,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -1979,7 +2890,7 @@
         <v>265</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -1987,10 +2898,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2002,7 +2913,7 @@
         <v>180</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
@@ -2010,16 +2921,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
@@ -2027,16 +2938,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2956,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="48" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="get_modified_verssion"/>
+    <hyperlink ref="C3" r:id="rId1" display="get_modified_verssion"/>
+    <hyperlink ref="C4" r:id="rId1" display="get_modified_verssion"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -2073,16 +3095,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
@@ -2090,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2105,7 +3127,7 @@
         <v>-165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2113,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2128,7 +3150,7 @@
         <v>-50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2136,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2151,7 +3173,7 @@
         <v>-165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2159,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2174,7 +3196,7 @@
         <v>-165</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2182,10 +3204,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2197,7 +3219,7 @@
         <v>-165</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2205,10 +3227,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2220,7 +3242,7 @@
         <v>-20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2228,10 +3250,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2243,7 +3265,7 @@
         <v>-180</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
@@ -2251,16 +3273,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
@@ -2268,16 +3290,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
@@ -2314,19 +3336,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
@@ -2334,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2352,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2360,10 +3382,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2378,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2386,10 +3408,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2404,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2412,10 +3434,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2430,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2438,10 +3460,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2456,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2464,10 +3486,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2482,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2490,10 +3512,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2508,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
@@ -2516,16 +3538,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
@@ -2533,16 +3555,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:8">
@@ -2550,10 +3572,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2562,7 +3584,7 @@
         <v>180</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +3593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
@@ -2599,19 +3621,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
@@ -2619,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2637,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2645,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2663,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2671,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2689,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2697,10 +3719,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2715,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2723,10 +3745,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2741,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2749,10 +3771,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2767,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
@@ -2775,10 +3797,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2793,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
@@ -2801,16 +3823,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
@@ -2818,16 +3840,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
@@ -2835,10 +3857,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2847,7 +3869,7 @@
         <v>180</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2856,27 +3878,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2887,30 +3909,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2919,76 +3948,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2996,12 +3962,14 @@
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3012,235 +3980,477 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="51" customHeight="1" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="51" customHeight="1" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
+        <v>140</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" ht="43.2" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="43.2" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3249,26 +4459,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3279,30 +4487,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3310,25 +4515,22 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:8">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3336,52 +4538,169 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:6">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="43.2" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -3410,13 +4729,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -3424,19 +4743,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3445,12 +4764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3474,13 +4793,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -3488,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3500,7 +4819,145 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3512,17 +4969,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
@@ -3536,37 +4996,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:7">
+    <row r="2" ht="34" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
         <v>1.2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2">
         <v>1.2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3579,20 +5073,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3605,35 +5102,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.1</v>
+      <c r="E2" s="2">
+        <v>4501</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4502</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4501</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4502</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4501</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4502</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3645,22 +5182,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
-    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3670,42 +5210,281 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <v>4501</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4502</v>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3713,17 +5492,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
@@ -3737,12 +5519,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3754,20 +5536,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="22" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="22" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3779,21 +5593,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3804,31 +5620,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>9</v>
+      </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3840,21 +5675,24 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3865,30 +5703,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3900,21 +5760,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3925,30 +5788,90 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_mercury.xlsx
+++ b/test_data/test_mercury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="18" activeTab="24"/>
+    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="46" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="4" r:id="rId1"/>
@@ -32,10 +32,33 @@
     <sheet name="get_angles" sheetId="22" r:id="rId23"/>
     <sheet name="send_angles" sheetId="29" r:id="rId24"/>
     <sheet name="get_angle" sheetId="19" r:id="rId25"/>
-    <sheet name="get_model_direction" sheetId="20" r:id="rId26"/>
-    <sheet name="get_movement_type" sheetId="21" r:id="rId27"/>
-    <sheet name="get_coords" sheetId="23" r:id="rId28"/>
-    <sheet name="get_base_coords" sheetId="24" r:id="rId29"/>
+    <sheet name="send_angle" sheetId="30" r:id="rId26"/>
+    <sheet name="get_coords" sheetId="23" r:id="rId27"/>
+    <sheet name="send_coords" sheetId="31" r:id="rId28"/>
+    <sheet name="pause" sheetId="32" r:id="rId29"/>
+    <sheet name="is_paused" sheetId="33" r:id="rId30"/>
+    <sheet name="resume" sheetId="34" r:id="rId31"/>
+    <sheet name="stop" sheetId="35" r:id="rId32"/>
+    <sheet name="is_in_position" sheetId="36" r:id="rId33"/>
+    <sheet name="is_moving" sheetId="37" r:id="rId34"/>
+    <sheet name="get_max_speed" sheetId="38" r:id="rId35"/>
+    <sheet name="set_max_speed" sheetId="39" r:id="rId36"/>
+    <sheet name="get_max_acc" sheetId="40" r:id="rId37"/>
+    <sheet name="set_max_acc" sheetId="41" r:id="rId38"/>
+    <sheet name="get_model_direction" sheetId="20" r:id="rId39"/>
+    <sheet name="get_movement_type" sheetId="21" r:id="rId40"/>
+    <sheet name="get_base_coords" sheetId="24" r:id="rId41"/>
+    <sheet name="get_servo_speeds" sheetId="42" r:id="rId42"/>
+    <sheet name="get_servo_currents" sheetId="43" r:id="rId43"/>
+    <sheet name="get_servo_status" sheetId="44" r:id="rId44"/>
+    <sheet name="set_color" sheetId="45" r:id="rId45"/>
+    <sheet name="get_collision_mode" sheetId="46" r:id="rId46"/>
+    <sheet name="set_collision_mode" sheetId="47" r:id="rId47"/>
+    <sheet name="set_collision_threshold" sheetId="48" r:id="rId48"/>
+    <sheet name="get_collision_threshold" sheetId="49" r:id="rId49"/>
+    <sheet name="set_torque_comp" sheetId="50" r:id="rId50"/>
+    <sheet name="get_torque_comp" sheetId="51" r:id="rId51"/>
+    <sheet name="get_pos_over_shoot" sheetId="52" r:id="rId52"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -285,10 +308,19 @@
     <t>get_robot_status</t>
   </si>
   <si>
-    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>仅上电</t>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>仅上电获取机械臂状态</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, [8, 0], [8, 0], [8, 0], [8, 0], [8, 0], [8, 0], [8, 0]]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, [8, 0], [8, 0], [8, 0], [8, 0], [8, 0], [8, 0], [8, 0], [8, 0]]</t>
   </si>
   <si>
     <t>机械臂回到零位</t>
@@ -480,7 +512,7 @@
     <t>send_angles</t>
   </si>
   <si>
-    <t>[10,0,0,30,0,90,0]</t>
+    <t>[10,0,0,-30,0,90,0]</t>
   </si>
   <si>
     <t>正确设置多关节角度，速度50</t>
@@ -492,7 +524,7 @@
     <t>正确设置多关节角度，速度90</t>
   </si>
   <si>
-    <t>[0,0,0,10,0,90,-20]</t>
+    <t>[0,0,0,-10,0,90,-20]</t>
   </si>
   <si>
     <t>设置多关节角度，速度超限（-1）</t>
@@ -618,6 +650,282 @@
     <t>获取关节角度，关节（超限）</t>
   </si>
   <si>
+    <t>正确设置1关节角度，正限位</t>
+  </si>
+  <si>
+    <t>send_angle</t>
+  </si>
+  <si>
+    <t>正确设置1关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置2关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置2关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置3关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置3关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置4关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置4关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置5关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置5关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置6关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置6关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置7关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置7关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置11关节角度，正限位</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>正确设置11关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置12关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置12关节角度，负限位</t>
+  </si>
+  <si>
+    <t>正确设置13关节角度，正限位</t>
+  </si>
+  <si>
+    <t>正确设置13关节角度，负限位</t>
+  </si>
+  <si>
+    <t>设置关节角度，速度超限（-1）</t>
+  </si>
+  <si>
+    <t>设置关节角度，速度超限（0）</t>
+  </si>
+  <si>
+    <t>设置关节角度，速度超限（101）</t>
+  </si>
+  <si>
+    <t>设置1关节角度超限（-170）</t>
+  </si>
+  <si>
+    <t>设置1关节角度超限（170）</t>
+  </si>
+  <si>
+    <t>设置2关节角度超限（-60）</t>
+  </si>
+  <si>
+    <t>设置2关节角度超限（130）</t>
+  </si>
+  <si>
+    <t>设置3关节角度超限（-170）</t>
+  </si>
+  <si>
+    <t>设置3关节超限（170）</t>
+  </si>
+  <si>
+    <t>设置4关节超限（-170）</t>
+  </si>
+  <si>
+    <t>设置4关节超限（2）</t>
+  </si>
+  <si>
+    <t>设置5关节超限（-170）</t>
+  </si>
+  <si>
+    <t>设置5关节超限（170）</t>
+  </si>
+  <si>
+    <t>设置6关节超限（-80）</t>
+  </si>
+  <si>
+    <t>设置6关节超限（260）</t>
+  </si>
+  <si>
+    <t>设置7关节超限（-170）</t>
+  </si>
+  <si>
+    <t>设置7关节超限（170）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂全坐标</t>
+  </si>
+  <si>
+    <t>get_coords</t>
+  </si>
+  <si>
+    <t>运动学正解返回角度</t>
+  </si>
+  <si>
+    <t>正确使机械臂运动中暂停</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>使机械臂运动中暂停（超限）</t>
+  </si>
+  <si>
+    <t>查看机械臂是否暂停（已暂停）</t>
+  </si>
+  <si>
+    <t>查看机械臂是否暂停（未暂停）</t>
+  </si>
+  <si>
+    <t>机械臂暂停状态恢复运动（参数0）</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>机械臂暂停状态恢复运动（参数1）</t>
+  </si>
+  <si>
+    <t>使机械臂恢复运动（参数超限）</t>
+  </si>
+  <si>
+    <t>机械臂运动状态下停止运动（参数0）</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>机械臂运动状态下停止运动（参数1）</t>
+  </si>
+  <si>
+    <t>使机械臂停止运动（参数超限）</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>判断当前角度是否在点位上（在点位±1°）</t>
+  </si>
+  <si>
+    <t>is_in_positon</t>
+  </si>
+  <si>
+    <t>[0, 20, 0, -90, 0, 90, 0]</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>判断当前角度是否在点位上（不在点位超过±1°）</t>
+  </si>
+  <si>
+    <t>判读当前坐标是否在点位上（在点位±0.2mm，欧拉角±一度）</t>
+  </si>
+  <si>
+    <t>[322.5, 0.0, 158.3, -180.0, 20.0, 0.0]</t>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>判读当前坐标是否在点位上（不在点位超过±0.2mm）</t>
+  </si>
+  <si>
+    <t>判读当前坐标是否在点位上（不在点位欧拉角超过1°）</t>
+  </si>
+  <si>
+    <t>判读当前base坐标是否在点位上（在点位±0.2mm，欧拉角±一度）</t>
+  </si>
+  <si>
+    <t>base_coords</t>
+  </si>
+  <si>
+    <t>判读当前base坐标是否在点位上（不在点位超过±0.2mm）</t>
+  </si>
+  <si>
+    <t>判读当前base坐标是否在点位上（不在点位欧拉角超过1°）</t>
+  </si>
+  <si>
+    <t>设置mode超限</t>
+  </si>
+  <si>
+    <t>机械臂运动状态下查看是否在云端</t>
+  </si>
+  <si>
+    <t>is_moing</t>
+  </si>
+  <si>
+    <t>机械臂静止状态下查看是否在云端</t>
+  </si>
+  <si>
+    <t>获取角度最大速度</t>
+  </si>
+  <si>
+    <t>get_max_speed</t>
+  </si>
+  <si>
+    <t>获取坐标最大速度</t>
+  </si>
+  <si>
+    <t>设置角度最大速度</t>
+  </si>
+  <si>
+    <t>set_max_speed</t>
+  </si>
+  <si>
+    <t>设置坐标最大速度</t>
+  </si>
+  <si>
+    <t>设置角度最大速度（超限）</t>
+  </si>
+  <si>
+    <t>设置坐标最大速度（超限）</t>
+  </si>
+  <si>
+    <t>获取角度最大加速度</t>
+  </si>
+  <si>
+    <t>get_max_acc</t>
+  </si>
+  <si>
+    <t>获取坐标最大加速度</t>
+  </si>
+  <si>
+    <t>设置角度最大加速度</t>
+  </si>
+  <si>
+    <t>set_max_acc</t>
+  </si>
+  <si>
+    <t>设置坐标最大加速度</t>
+  </si>
+  <si>
+    <t>设置角度最大加速度（超限）</t>
+  </si>
+  <si>
+    <t>设置坐标最大加速度（超限）</t>
+  </si>
+  <si>
+    <t>掉电不保存检查（角度）</t>
+  </si>
+  <si>
+    <t>掉电不保存检查（坐标）</t>
+  </si>
+  <si>
     <t>正确获取关节模型方向</t>
   </si>
   <si>
@@ -633,16 +941,190 @@
     <t>get_movement_type</t>
   </si>
   <si>
-    <t>正确获取机械臂全坐标</t>
-  </si>
-  <si>
-    <t>get_coords</t>
-  </si>
-  <si>
     <t>正确获取机械臂Base全坐标</t>
   </si>
   <si>
     <t>get_base_coords</t>
+  </si>
+  <si>
+    <t>正确获取机械臂关节速度</t>
+  </si>
+  <si>
+    <t>get_servo_speeds</t>
+  </si>
+  <si>
+    <t>正确获取机械臂关节电流</t>
+  </si>
+  <si>
+    <t>get_servo_currents</t>
+  </si>
+  <si>
+    <t>正确获取机械臂关节状态</t>
+  </si>
+  <si>
+    <t>get_servo_status</t>
+  </si>
+  <si>
+    <t>正确获取机械臂末端颜色</t>
+  </si>
+  <si>
+    <t>set_color</t>
+  </si>
+  <si>
+    <t>[0,255,0]</t>
+  </si>
+  <si>
+    <t>[255,255,0]</t>
+  </si>
+  <si>
+    <t>[255,0,0]</t>
+  </si>
+  <si>
+    <t>设置RGB值超限</t>
+  </si>
+  <si>
+    <t>[300,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,300]</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞模式</t>
+  </si>
+  <si>
+    <t>get_collision_mode</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞模式</t>
+  </si>
+  <si>
+    <t>set_collision_mode</t>
+  </si>
+  <si>
+    <t>设置机械臂碰撞模式（超限）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（1关节）</t>
+  </si>
+  <si>
+    <t>set_collision_threshold</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（2关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（3关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（4关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（5关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（6关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂碰撞阈值（7关节）</t>
+  </si>
+  <si>
+    <t>设置机械臂碰撞阈值（关节超限）</t>
+  </si>
+  <si>
+    <t>设置机械臂碰撞阈值（阈值超限）</t>
+  </si>
+  <si>
+    <t>掉电保存</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（1关节）</t>
+  </si>
+  <si>
+    <t>get_collision_threshold</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（2关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（3关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（4关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（5关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（6关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂碰撞阈值（7关节）</t>
+  </si>
+  <si>
+    <t>获取机械臂碰撞阈值（关节超限）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（1关节）</t>
+  </si>
+  <si>
+    <t>set_torque_comp</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（2关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（3关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（4关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（5关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（6关节）</t>
+  </si>
+  <si>
+    <t>正确设置机械臂力矩参数（7关节）</t>
+  </si>
+  <si>
+    <t>设置机械臂力矩参数（关节超限）</t>
+  </si>
+  <si>
+    <t>设置机械臂力矩参数（参数超限）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（1关节）</t>
+  </si>
+  <si>
+    <t>get_torque_comp</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（2关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（3关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（4关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（5关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（6关节）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂力矩参数（7关节）</t>
+  </si>
+  <si>
+    <t>获取机械臂力矩参数（关节超限）</t>
+  </si>
+  <si>
+    <t>正确获取机械臂位置超差值</t>
+  </si>
+  <si>
+    <t>get_pos_over_shoot</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +2111,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1738,7 +2220,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1805,8 +2287,12 @@
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1821,8 +2307,12 @@
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1839,7 +2329,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1905,12 +2395,6 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1947,7 +2431,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2000,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
@@ -2020,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2607,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2175,27 +2659,27 @@
         <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="86.4" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -2252,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2319,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2342,10 +2826,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>-1</v>
@@ -2365,10 +2849,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2388,10 +2872,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2461,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2482,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -2532,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2546,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2566,10 +3050,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2586,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2606,10 +3090,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2626,10 +3110,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2646,10 +3130,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2666,10 +3150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2686,10 +3170,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -2700,10 +3184,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2721,7 +3205,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2743,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2760,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2783,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2806,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2829,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2852,10 +3336,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2875,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2898,10 +3382,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2921,10 +3405,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -2938,10 +3422,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2962,7 +3446,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -3012,10 +3496,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -3032,10 +3516,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -3050,6 +3534,12 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -3073,7 +3563,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3095,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3112,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3135,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3158,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3181,10 +3671,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3204,10 +3694,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3227,10 +3717,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3250,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3273,10 +3763,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3290,10 +3780,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3311,10 +3801,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3336,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -3356,10 +3846,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3382,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3408,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3434,10 +3924,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3460,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3486,10 +3976,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3512,10 +4002,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3538,10 +4028,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3555,10 +4045,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3572,10 +4062,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3585,6 +4075,32 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>160</v>
+      </c>
+      <c r="F12" s="1">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1">
+        <v>160</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3596,10 +4112,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3621,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -3641,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3667,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3693,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3719,10 +4235,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3745,10 +4261,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3771,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3797,10 +4313,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3823,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3840,10 +4356,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3857,10 +4373,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3870,6 +4386,32 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-160</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-160</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-160</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3926,17 +4468,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -3954,7 +4496,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3983,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -4000,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -4026,13 +4568,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -4052,13 +4594,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
         <v>90</v>
@@ -4078,13 +4620,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1">
         <v>-1</v>
@@ -4098,13 +4640,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -4118,13 +4660,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1">
         <v>101</v>
@@ -4138,13 +4680,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -4158,13 +4700,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -4178,13 +4720,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -4198,13 +4740,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -4218,13 +4760,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -4238,13 +4780,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -4258,13 +4800,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -4278,13 +4820,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -4298,13 +4840,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -4318,13 +4860,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -4338,13 +4880,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -4358,13 +4900,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -4378,13 +4920,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -4398,13 +4940,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -4418,13 +4960,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -4438,13 +4980,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -4464,7 +5006,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4487,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4504,10 +5046,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4527,10 +5069,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4550,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4573,10 +5115,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -4596,10 +5138,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4619,10 +5161,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -4642,10 +5184,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -4665,10 +5207,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -4682,10 +5224,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4703,22 +5245,25 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4729,33 +5274,993 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>191</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>165</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>165</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>255</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-165</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>245</v>
+      </c>
+      <c r="F18" s="1">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-70</v>
+      </c>
+      <c r="F19" s="1">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
+        <v>160</v>
+      </c>
+      <c r="F20" s="1">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-160</v>
+      </c>
+      <c r="F21" s="1">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-170</v>
+      </c>
+      <c r="F25" s="1">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>170</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-60</v>
+      </c>
+      <c r="F27" s="1">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-170</v>
+      </c>
+      <c r="F29" s="1">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-170</v>
+      </c>
+      <c r="F31" s="1">
+        <v>50</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-170</v>
+      </c>
+      <c r="F33" s="1">
+        <v>50</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>170</v>
+      </c>
+      <c r="F34" s="1">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-80</v>
+      </c>
+      <c r="F35" s="1">
+        <v>50</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>260</v>
+      </c>
+      <c r="F36" s="1">
+        <v>50</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-170</v>
+      </c>
+      <c r="F37" s="1">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>170</v>
+      </c>
+      <c r="F38" s="1">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4767,77 +6272,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
@@ -4876,19 +6317,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4897,16 +6352,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
@@ -4945,19 +6400,163 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5070,13 +6669,1620 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="57.6" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="57.6" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="57.6" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="1">
+        <v>151</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="1">
+        <v>201</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>150</v>
+      </c>
+      <c r="G10" s="1">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1">
+        <v>400</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="1">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="1">
+        <v>401</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>400</v>
+      </c>
+      <c r="G11" s="1">
+        <v>400</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -5179,13 +8385,1294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>251</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5292,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -5318,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -5366,6 +9853,12 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -5485,6 +9978,689 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>251</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5596,7 +10772,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -5763,7 +10939,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
